--- a/Koordinaten_2024.xlsx
+++ b/Koordinaten_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wslch365-my.sharepoint.com/personal/lia_baumann_wsl_ch/Documents/R/truffles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{53E3C729-3A50-4BC6-A70C-A9EE5E16EAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{210FD0BC-BDB0-4D83-A62E-0AA23BFBF9DA}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{53E3C729-3A50-4BC6-A70C-A9EE5E16EAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29472BC9-83DD-419E-922B-8FF60BB364DA}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="1620" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Bohlingen Ueberlingen</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>müM</t>
+  </si>
+  <si>
+    <t>LIM</t>
+  </si>
+  <si>
+    <t>BRU</t>
+  </si>
+  <si>
+    <t>HAN</t>
+  </si>
+  <si>
+    <t>Hannover</t>
   </si>
 </sst>
 </file>
@@ -188,18 +200,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -214,10 +220,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,20 +526,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -552,7 +556,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -569,7 +573,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -586,7 +590,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -603,7 +607,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -620,7 +624,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -637,7 +641,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -654,7 +658,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -671,7 +675,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -688,7 +692,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -705,7 +709,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -722,7 +726,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -739,7 +743,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -756,7 +760,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -773,7 +777,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -790,7 +794,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -807,7 +811,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -824,7 +828,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -837,12 +841,14 @@
       <c r="D18">
         <v>7.1630108400000001</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>613</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -856,8 +862,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
       <c r="B20" t="s">
         <v>33</v>
       </c>
@@ -871,7 +879,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -888,38 +896,46 @@
         <v>699</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>46.434100000000001</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>6.2287999999999997</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>530</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>47.363100000000003</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>8.4551999999999996</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +953,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -949,7 +965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Koordinaten_2024.xlsx
+++ b/Koordinaten_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wslch365-my.sharepoint.com/personal/lia_baumann_wsl_ch/Documents/R/truffles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{53E3C729-3A50-4BC6-A70C-A9EE5E16EAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29472BC9-83DD-419E-922B-8FF60BB364DA}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{53E3C729-3A50-4BC6-A70C-A9EE5E16EAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0E9B930-7DD3-4E22-8877-A68C5528BAFD}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="77490" yWindow="0" windowWidth="17415" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -237,6 +237,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,7 +533,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -936,6 +940,15 @@
       </c>
       <c r="B24" t="s">
         <v>49</v>
+      </c>
+      <c r="C24">
+        <v>52.375900000000001</v>
+      </c>
+      <c r="D24">
+        <v>9.7319999999999993</v>
+      </c>
+      <c r="E24">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
